--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://instituteoftechnol663-my.sharepoint.com/personal/c00208862_itcarlow_ie/Documents/Shared Project Folder/Project_6thApril2017/"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Timeline</t>
   </si>
@@ -42,13 +42,91 @@
   </si>
   <si>
     <t>HTML and CSS for Main Page</t>
+  </si>
+  <si>
+    <t>ER Diagrams and database layout</t>
+  </si>
+  <si>
+    <t>Data validation</t>
+  </si>
+  <si>
+    <t>Design Main menu functions</t>
+  </si>
+  <si>
+    <t>Group Tasks</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Prototype test, redesign and add features</t>
+  </si>
+  <si>
+    <t>End Product</t>
+  </si>
+  <si>
+    <t>Customer front end functions</t>
+  </si>
+  <si>
+    <t>Add item to shopping cart</t>
+  </si>
+  <si>
+    <t>Delete Item from shopping cart</t>
+  </si>
+  <si>
+    <t>Amend order</t>
+  </si>
+  <si>
+    <t>Search for order</t>
+  </si>
+  <si>
+    <t>Delete photograph</t>
+  </si>
+  <si>
+    <t>Amend photograph tags</t>
+  </si>
+  <si>
+    <t>Add photograph record</t>
+  </si>
+  <si>
+    <t>Search for photograph, by date, tags, Id number</t>
+  </si>
+  <si>
+    <t>Admin back end functions</t>
+  </si>
+  <si>
+    <t>Add customer</t>
+  </si>
+  <si>
+    <t>Delete customer</t>
+  </si>
+  <si>
+    <t>Amend customer</t>
+  </si>
+  <si>
+    <t>Search for Customer</t>
+  </si>
+  <si>
+    <t>Add supplier</t>
+  </si>
+  <si>
+    <t>Delete supplier</t>
+  </si>
+  <si>
+    <t>Amend supplier</t>
+  </si>
+  <si>
+    <t>Search for supplier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +162,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.59996337778862885"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +220,50 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,6 +286,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -144,18 +303,65 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -440,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:O11"/>
+  <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:G11"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +659,7 @@
     <col min="6" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <v>42754</v>
       </c>
@@ -487,57 +693,275 @@
       <c r="N4" s="1">
         <v>42824</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="15">
         <v>42831</v>
       </c>
-    </row>
-    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G30" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D7:E7"/>
+  <mergeCells count="33">
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Timeline</t>
   </si>
@@ -108,18 +108,6 @@
   </si>
   <si>
     <t>Search for Customer</t>
-  </si>
-  <si>
-    <t>Add supplier</t>
-  </si>
-  <si>
-    <t>Delete supplier</t>
-  </si>
-  <si>
-    <t>Amend supplier</t>
-  </si>
-  <si>
-    <t>Search for supplier</t>
   </si>
 </sst>
 </file>
@@ -263,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -295,6 +283,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -303,13 +300,53 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
@@ -324,42 +361,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +652,7 @@
   <dimension ref="A4:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="O23" sqref="O23:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,22 +696,26 @@
       <c r="N4" s="1">
         <v>42824</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="6">
         <v>42831</v>
       </c>
-      <c r="P4" s="15"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="15"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
@@ -716,224 +723,276 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="19"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="3"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="3"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="3"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="3"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="3"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="3"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="3"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="3"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O24" s="17" t="s">
+      <c r="O24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="17"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="16"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="16"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="16"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="16"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="16"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
+  <mergeCells count="52">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="O4:P4"/>
@@ -948,20 +1007,13 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="E12:G12"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
